--- a/docs/excel/proto_index.xlsx
+++ b/docs/excel/proto_index.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="139">
   <si>
     <t>Id</t>
   </si>
@@ -80,6 +80,30 @@
   </si>
   <si>
     <t>msg.BT_UpdateMoney</t>
+  </si>
+  <si>
+    <t>msg.C2GW_JoinGame</t>
+  </si>
+  <si>
+    <t>msg.RoomMemberInfo</t>
+  </si>
+  <si>
+    <t>msg.GW2C_UpdateRoomInfo</t>
+  </si>
+  <si>
+    <t>msg.GW2C_StartGame</t>
+  </si>
+  <si>
+    <t>msg.GW2C_QuestionInfo</t>
+  </si>
+  <si>
+    <t>msg.C2GW_Answer</t>
+  </si>
+  <si>
+    <t>msg.GW2C_AnswerInfo</t>
+  </si>
+  <si>
+    <t>msg.GW2C_GameOver</t>
   </si>
   <si>
     <t>msg.C2GW_ReqLogin</t>
@@ -788,7 +812,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B111"/>
+  <dimension ref="A1:B119"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -1684,6 +1708,70 @@
       </c>
       <c r="B111" s="1" t="s">
         <v>113</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1">
+        <v>108</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1">
+        <v>109</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1">
+        <v>110</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1">
+        <v>111</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1">
+        <v>112</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1">
+        <v>113</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1">
+        <v>114</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1">
+        <v>115</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -1722,59 +1810,59 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>

--- a/docs/excel/proto_index.xlsx
+++ b/docs/excel/proto_index.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="137">
   <si>
     <t>Id</t>
   </si>
@@ -142,13 +142,7 @@
     <t>msg.C2L_ReqLogin</t>
   </si>
   <si>
-    <t>msg.C2L_ReqLoginWechat</t>
-  </si>
-  <si>
     <t>msg.L2C_RetLogin</t>
-  </si>
-  <si>
-    <t>msg.C2L_ReqRegistAuthCode</t>
   </si>
   <si>
     <t>msg.C2L_ReqRegistAccount</t>
@@ -812,7 +806,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B119"/>
+  <dimension ref="A1:B117"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -1756,22 +1750,6 @@
       </c>
       <c r="B117" s="1" t="s">
         <v>119</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" s="1">
-        <v>114</v>
-      </c>
-      <c r="B118" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" s="1">
-        <v>115</v>
-      </c>
-      <c r="B119" s="1" t="s">
-        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -1810,59 +1788,59 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>128</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>136</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>138</v>
       </c>
     </row>
   </sheetData>

--- a/docs/excel/proto_index.xlsx
+++ b/docs/excel/proto_index.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="138">
   <si>
     <t>Id</t>
   </si>
@@ -83,6 +83,9 @@
   </si>
   <si>
     <t>msg.C2GW_JoinGame</t>
+  </si>
+  <si>
+    <t>msg.GW2C_JoinOk</t>
   </si>
   <si>
     <t>msg.RoomMemberInfo</t>
@@ -806,7 +809,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B117"/>
+  <dimension ref="A1:B118"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -1750,6 +1753,14 @@
       </c>
       <c r="B117" s="1" t="s">
         <v>119</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1">
+        <v>114</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -1788,59 +1799,59 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>

--- a/docs/excel/proto_index.xlsx
+++ b/docs/excel/proto_index.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="139">
   <si>
     <t>Id</t>
   </si>
@@ -101,6 +101,9 @@
   </si>
   <si>
     <t>msg.C2GW_Answer</t>
+  </si>
+  <si>
+    <t>msg.GW2C_AnswerOk</t>
   </si>
   <si>
     <t>msg.GW2C_AnswerInfo</t>
@@ -809,7 +812,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B118"/>
+  <dimension ref="A1:B119"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -1761,6 +1764,14 @@
       </c>
       <c r="B118" s="1" t="s">
         <v>120</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1">
+        <v>115</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -1799,59 +1810,59 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>
